--- a/Forms/NSiD Certificate Signing Request Form.xlsx
+++ b/Forms/NSiD Certificate Signing Request Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Digital Platform Services\Digital Identity\MyNSID\Documentation\MyNSID-Continuous-Improvement\GitHub\Nova-Scotia-Login-Service\Nova-Scotia-Login-System\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Digital Platform Services\Digital Identity\NSiD\Documentation\MyNSID-Continuous-Improvement\GitHub\Nova-Scotia-Login-Service\Nova-Scotia-Login-System\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8098AB2-EE27-48DB-BC4A-9EDFBB54B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB6C13-73C9-4BE9-8587-A680480ACE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-120" windowWidth="27960" windowHeight="18240" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
+    <workbookView xWindow="2985" yWindow="960" windowWidth="24090" windowHeight="16140" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,23 +86,23 @@
     </r>
   </si>
   <si>
+    <t>Business/Program Sponsor (GNS/NSHA Employee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department/Agency Name  </t>
+  </si>
+  <si>
+    <t>Product Owner (GNS/NSHA Employee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Group/Vendor Name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Classification (A, B, C..) </t>
+  </si>
+  <si>
     <t xml:space="preserve">
-NSLS Certificate Signing Request Form</t>
-  </si>
-  <si>
-    <t>Business/Program Sponsor (GNS/NSHA Employee)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department/Agency Name  </t>
-  </si>
-  <si>
-    <t>Product Owner (GNS/NSHA Employee)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support Group/Vendor Name  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Classification (A, B, C..) </t>
+NSiD Certificate Signing Request Form</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="20"/>
       <c r="F1" s="15"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6"/>
     </row>
@@ -833,7 +833,7 @@
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,14 +850,14 @@
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
     </row>
@@ -904,7 +904,7 @@
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7"/>
     </row>
@@ -965,6 +965,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3DA4F9BC48E6749B7F6096675E736D4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0dd3fa7870eaff2fa578fd9b3523f5d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54" xmlns:ns3="cf40fa3a-ca34-444b-baec-089d050d3c0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8963a769a5b2d572f5b9b7e76b18efa4" ns2:_="" ns3:_="">
     <xsd:import namespace="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
@@ -1175,22 +1190,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2FA794-B4E7-464D-96E2-97F3C6D8DE95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1207,29 +1232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Forms/NSiD Certificate Signing Request Form.xlsx
+++ b/Forms/NSiD Certificate Signing Request Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Digital Platform Services\Digital Identity\NSiD\Documentation\MyNSID-Continuous-Improvement\GitHub\Nova-Scotia-Login-Service\Nova-Scotia-Login-System\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB6C13-73C9-4BE9-8587-A680480ACE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744588FA-36D3-41B2-A8A7-6532B62EE25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="960" windowWidth="24090" windowHeight="16140" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
+    <workbookView xWindow="6675" yWindow="1305" windowWidth="20265" windowHeight="15090" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Application Information</t>
   </si>
@@ -104,6 +104,32 @@
     <t xml:space="preserve">
 NSiD Certificate Signing Request Form</t>
   </si>
+  <si>
+    <r>
+      <t>Approval for Production (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Number)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +207,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -208,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -325,12 +359,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF548235"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF548235"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -391,6 +440,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,15 +838,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E605552-92D0-4CA8-9EB4-94C5770B000C}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -831,93 +883,99 @@
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,21 +1023,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3DA4F9BC48E6749B7F6096675E736D4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0dd3fa7870eaff2fa578fd9b3523f5d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54" xmlns:ns3="cf40fa3a-ca34-444b-baec-089d050d3c0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8963a769a5b2d572f5b9b7e76b18efa4" ns2:_="" ns3:_="">
     <xsd:import namespace="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
@@ -1190,32 +1233,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2FA794-B4E7-464D-96E2-97F3C6D8DE95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1232,4 +1265,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>